--- a/ThaumAge/Assets/Data/Excel/excel_magicinstrument_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_magicinstrument_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="11970"/>
+    <workbookView windowWidth="28770" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="MagicInstrumentInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>magic_core_num</t>
   </si>
   <si>
+    <t>mana_add</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>法术核心 上限</t>
   </si>
   <si>
+    <t>魔力加成</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -80,6 +86,27 @@
   </si>
   <si>
     <t>黄铜杖端</t>
+  </si>
+  <si>
+    <t>橡木杖柄</t>
+  </si>
+  <si>
+    <t>银树杖柄</t>
+  </si>
+  <si>
+    <t>世界树杖柄</t>
+  </si>
+  <si>
+    <t>樱花树杖柄</t>
+  </si>
+  <si>
+    <t>棕榈树杖柄</t>
+  </si>
+  <si>
+    <t>桦树杖柄</t>
+  </si>
+  <si>
+    <t>胡桃树杖柄</t>
   </si>
 </sst>
 </file>
@@ -1047,21 +1074,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="4" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="5" width="36.875" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1077,42 +1105,51 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1000002</v>
       </c>
@@ -1125,11 +1162,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1000003</v>
       </c>
@@ -1142,11 +1182,14 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1000004</v>
       </c>
@@ -1159,11 +1202,14 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>1000005</v>
       </c>
@@ -1176,11 +1222,14 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1000006</v>
       </c>
@@ -1193,11 +1242,14 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1000007</v>
       </c>
@@ -1210,11 +1262,14 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1000008</v>
       </c>
@@ -1227,11 +1282,14 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1000011</v>
       </c>
@@ -1244,11 +1302,14 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1000012</v>
       </c>
@@ -1261,8 +1322,151 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2000001</v>
+      </c>
+      <c r="B13">
+        <v>4380101</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>2000002</v>
+      </c>
+      <c r="B14">
+        <v>4380102</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2000003</v>
+      </c>
+      <c r="B15">
+        <v>4380103</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>2000004</v>
+      </c>
+      <c r="B16">
+        <v>4380104</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2000005</v>
+      </c>
+      <c r="B17">
+        <v>4380105</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2000006</v>
+      </c>
+      <c r="B18">
+        <v>4380106</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2000007</v>
+      </c>
+      <c r="B19">
+        <v>4380107</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1"/>
@@ -1286,7 +1490,7 @@
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:F88">
+  <sortState ref="A4:G88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
